--- a/Assets/TableData/ActionGame.xlsx
+++ b/Assets/TableData/ActionGame.xlsx
@@ -4,6 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="TipMess" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="ItemData" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="MonsterData" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>uid</t>
   </si>
@@ -50,6 +52,99 @@
   </si>
   <si>
     <t>중간보스는 일반 몬스터보다 강합니다.</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>iconImg</t>
+  </si>
+  <si>
+    <t>sellGold</t>
+  </si>
+  <si>
+    <t>attackDamage</t>
+  </si>
+  <si>
+    <t>attackRange</t>
+  </si>
+  <si>
+    <t>attackRate</t>
+  </si>
+  <si>
+    <t>equip</t>
+  </si>
+  <si>
+    <t>단검</t>
+  </si>
+  <si>
+    <t>ItemIcon/itemicon_equipment_sword</t>
+  </si>
+  <si>
+    <t>도끼</t>
+  </si>
+  <si>
+    <t>ItemIcon/itemicon_equipment_weapon_ax</t>
+  </si>
+  <si>
+    <t>나무활</t>
+  </si>
+  <si>
+    <t>ItemIcon/itemicon_equipment_weapon_bow</t>
+  </si>
+  <si>
+    <t>해머</t>
+  </si>
+  <si>
+    <t>ItemIcon/itemicon_equipment_weapon_hammer</t>
+  </si>
+  <si>
+    <t>돌맹이</t>
+  </si>
+  <si>
+    <t>ItemIcon/itemicon_diamond_red</t>
+  </si>
+  <si>
+    <t>마법사모자</t>
+  </si>
+  <si>
+    <t>ItemIcon/itemicon_equipment_helmet_witch</t>
+  </si>
+  <si>
+    <t>조던링</t>
+  </si>
+  <si>
+    <t>ItemIcon/itemicon_equipment_ring</t>
+  </si>
+  <si>
+    <t>할배검</t>
+  </si>
+  <si>
+    <t>ItemIcon/itemicon_equipment_weapon_spear</t>
+  </si>
+  <si>
+    <t>윈드포스</t>
+  </si>
+  <si>
+    <t>풀플레이트아머</t>
+  </si>
+  <si>
+    <t>ItemIcon/itemicon_equipment_armor</t>
+  </si>
+  <si>
+    <t>monsterType</t>
+  </si>
+  <si>
+    <t>moveSpeed</t>
+  </si>
+  <si>
+    <t>maxHP</t>
+  </si>
+  <si>
+    <t>dropID</t>
+  </si>
+  <si>
+    <t>dropRate</t>
   </si>
 </sst>
 </file>
@@ -99,6 +194,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -306,7 +409,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="51.25"/>
+    <col customWidth="1" min="3" max="3" width="64.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -389,4 +492,577 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="16.5"/>
+    <col customWidth="1" min="3" max="3" width="46.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1001.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1002.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>1003.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>1004.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>1005.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>1006.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>1007.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>1008.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>1009.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>1010.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>101001.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1001.0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>101002.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1002.0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>101003.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1001.0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>101004.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2001.0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>101005.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2002.0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>102001.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1001.0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>102002.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1002.0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>102003.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1001.0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>102004.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2001.0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>102005.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2002.0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>60.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/TableData/ActionGame.xlsx
+++ b/Assets/TableData/ActionGame.xlsx
@@ -6,6 +6,7 @@
     <sheet state="visible" name="TipMess" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="ItemData" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="MonsterData" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="LevelEXP" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>uid</t>
   </si>
@@ -36,7 +37,7 @@
     <t>보스 처치에 성공하면 전투맵의 난이도가 상승합니다.</t>
   </si>
   <si>
-    <t>BaseTown</t>
+    <t>BaseTownScene</t>
   </si>
   <si>
     <t>3시 NPC는 물약을 판매합니다.</t>
@@ -81,12 +82,36 @@
     <t>ItemIcon/itemicon_equipment_sword</t>
   </si>
   <si>
+    <t>단검+1</t>
+  </si>
+  <si>
+    <t>단검+2</t>
+  </si>
+  <si>
+    <t>단검+3</t>
+  </si>
+  <si>
+    <t>단검+4</t>
+  </si>
+  <si>
     <t>도끼</t>
   </si>
   <si>
     <t>ItemIcon/itemicon_equipment_weapon_ax</t>
   </si>
   <si>
+    <t>도끼+1</t>
+  </si>
+  <si>
+    <t>도끼+2</t>
+  </si>
+  <si>
+    <t>도끼+3</t>
+  </si>
+  <si>
+    <t>도끼+4</t>
+  </si>
+  <si>
     <t>나무활</t>
   </si>
   <si>
@@ -132,6 +157,30 @@
     <t>ItemIcon/itemicon_equipment_armor</t>
   </si>
   <si>
+    <t>빨간물약</t>
+  </si>
+  <si>
+    <t>ItemIcon/itemicon_flask_red</t>
+  </si>
+  <si>
+    <t>보라물약</t>
+  </si>
+  <si>
+    <t>ItemIcon/itemicon_flask_purple</t>
+  </si>
+  <si>
+    <t>초록물약</t>
+  </si>
+  <si>
+    <t>ItemIcon/itemicon_flask_green</t>
+  </si>
+  <si>
+    <t>파랑물약</t>
+  </si>
+  <si>
+    <t>ItemIcon/itemicon_flask_blue</t>
+  </si>
+  <si>
     <t>monsterType</t>
   </si>
   <si>
@@ -145,13 +194,22 @@
   </si>
   <si>
     <t>dropRate</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>curLevel</t>
+  </si>
+  <si>
+    <t>nextEXP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -163,13 +221,23 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -178,11 +246,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -202,6 +273,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -409,6 +484,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="2" max="2" width="15.38"/>
     <col customWidth="1" min="3" max="3" width="64.13"/>
   </cols>
   <sheetData>
@@ -460,7 +536,7 @@
       <c r="A5" s="1">
         <v>20002.0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -568,16 +644,16 @@
         <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="E3" s="1">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="F3" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G3" s="1">
         <v>1.0</v>
@@ -591,19 +667,19 @@
         <v>1003.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="E4" s="1">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="F4" s="1">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="G4" s="1">
         <v>1.0</v>
@@ -617,16 +693,16 @@
         <v>1004.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>40.0</v>
+        <v>10.0</v>
       </c>
       <c r="E5" s="1">
-        <v>9.0</v>
+        <v>20.0</v>
       </c>
       <c r="F5" s="1">
         <v>2.0</v>
@@ -643,19 +719,19 @@
         <v>1005.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1">
-        <v>55.0</v>
+        <v>10.0</v>
       </c>
       <c r="E6" s="1">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
       <c r="F6" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G6" s="1">
         <v>1.0</v>
@@ -666,131 +742,443 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>1006.0</v>
+        <v>2001.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1">
-        <v>70.0</v>
+        <v>20.0</v>
       </c>
       <c r="E7" s="1">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="F7" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G7" s="1">
         <v>1.0</v>
       </c>
       <c r="H7" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>1007.0</v>
+        <v>2002.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>80.0</v>
+        <v>20.0</v>
       </c>
       <c r="E8" s="1">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="F8" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G8" s="1">
         <v>1.0</v>
       </c>
       <c r="H8" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>1008.0</v>
+        <v>2003.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1">
-        <v>90.0</v>
+        <v>20.0</v>
       </c>
       <c r="E9" s="1">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="F9" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G9" s="1">
         <v>1.0</v>
       </c>
       <c r="H9" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>1009.0</v>
+        <v>2004.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1">
-        <v>100.0</v>
+        <v>20.0</v>
       </c>
       <c r="E10" s="1">
-        <v>1.0</v>
+        <v>28.0</v>
       </c>
       <c r="F10" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G10" s="1">
         <v>1.0</v>
       </c>
       <c r="H10" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>1010.0</v>
+        <v>2005.0</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>3001.0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>4001.0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>5001.0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D14" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>1001006.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="1">
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>1001007.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>1001008.0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>1001009.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>1001010.0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1">
         <v>110.0</v>
       </c>
-      <c r="E11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="E19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>2001001.0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>2001002.0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>2001003.0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>2001004.0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="1">
+        <v>400.0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H23" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -814,22 +1202,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2">
@@ -854,6 +1245,9 @@
       <c r="G2" s="1">
         <v>10.0</v>
       </c>
+      <c r="H2" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -877,6 +1271,9 @@
       <c r="G3" s="1">
         <v>10.0</v>
       </c>
+      <c r="H3" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
@@ -900,6 +1297,9 @@
       <c r="G4" s="1">
         <v>20.0</v>
       </c>
+      <c r="H4" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
@@ -923,6 +1323,9 @@
       <c r="G5" s="1">
         <v>20.0</v>
       </c>
+      <c r="H5" s="1">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
@@ -946,6 +1349,9 @@
       <c r="G6" s="1">
         <v>30.0</v>
       </c>
+      <c r="H6" s="1">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
@@ -969,6 +1375,9 @@
       <c r="G7" s="1">
         <v>30.0</v>
       </c>
+      <c r="H7" s="1">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
@@ -992,6 +1401,9 @@
       <c r="G8" s="1">
         <v>40.0</v>
       </c>
+      <c r="H8" s="1">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
@@ -1015,6 +1427,9 @@
       <c r="G9" s="1">
         <v>40.0</v>
       </c>
+      <c r="H9" s="1">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
@@ -1038,6 +1453,9 @@
       <c r="G10" s="1">
         <v>50.0</v>
       </c>
+      <c r="H10" s="1">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
@@ -1060,6 +1478,272 @@
       </c>
       <c r="G11" s="1">
         <v>60.0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>92.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>135.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>372.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>560.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>840.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1242.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1242.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1242.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1242.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1242.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1490.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1788.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2145.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2574.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3088.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3705.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4446.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5335.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6402.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7682.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>9218.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>11061.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>13273.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>15927.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>19112.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>19112.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="1">
+        <v>19112.0</v>
       </c>
     </row>
   </sheetData>
